--- a/medicine/Enfance/Marianne_Dubuc/Marianne_Dubuc.xlsx
+++ b/medicine/Enfance/Marianne_Dubuc/Marianne_Dubuc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marianne Dubuc, née en 1980 à Montréal, est une auteure et illustratrice canadienne de livres pour enfants[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marianne Dubuc, née en 1980 à Montréal, est une auteure et illustratrice canadienne de livres pour enfants.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômée de l’école de design de l’UQAM (baccalauréat en design graphique, 2003), Marianne Dubuc commence une carrière d'auteure et illustratrice de livres pour enfants en 2006. Son œuvre, publiée en français et traduite dans plus de trente langues[2], lui a valu plusieurs récompenses dont le prix du Gouverneur général catégorie Illustrations en 2014 pour Le lion et l'oiseau[3], le Prix TD de littérature canadienne pour l'enfance et la jeunesse pour son livre L'autobus[4] . En 2018, elle remporte à nouveau le Prix littéraire du gouverneur général dans la catégorie Littérature jeunesse - livres illustrés ainsi que le Prix TD de littérature canadienne pour l'enfance et la jeunesse pour Le chemin de la montagne[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômée de l’école de design de l’UQAM (baccalauréat en design graphique, 2003), Marianne Dubuc commence une carrière d'auteure et illustratrice de livres pour enfants en 2006. Son œuvre, publiée en français et traduite dans plus de trente langues, lui a valu plusieurs récompenses dont le prix du Gouverneur général catégorie Illustrations en 2014 pour Le lion et l'oiseau, le Prix TD de littérature canadienne pour l'enfance et la jeunesse pour son livre L'autobus . En 2018, elle remporte à nouveau le Prix littéraire du gouverneur général dans la catégorie Littérature jeunesse - livres illustrés ainsi que le Prix TD de littérature canadienne pour l'enfance et la jeunesse pour Le chemin de la montagne.
 En 2018, elle fonde les Éditions Album avec Mathieu Lavoie, auteur et illustrateur jeunesse également.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Mer (La Pastèque, 2007)
 Félicien et la grosse pomme (texte de Fanny Britt, La courte échelle, 2009)
@@ -602,20 +618,22 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix du Gouverneur général 2014 pour Le Lion et l’Oiseau[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix du Gouverneur général 2014 pour Le Lion et l’Oiseau
 Prix Alvine-Bélisle 2014 pour Le Lion et l’Oiseau
-Prix des libraires du Québec section Jeunesse 2014 pour L’Autobus[6]
-Prix TD de littérature pour l’enfance et la jeunesse 2015 pour L’Autobus[4]
-Prix des libraires du Québec section Jeunesse 2016 pour La Tournée de Facteur Souris[6]
+Prix des libraires du Québec section Jeunesse 2014 pour L’Autobus
+Prix TD de littérature pour l’enfance et la jeunesse 2015 pour L’Autobus
+Prix des libraires du Québec section Jeunesse 2016 pour La Tournée de Facteur Souris
 Prix Ruth and Sylvia Schwartz 2016 pour Mr Postmouse's Rounds
-(international) « Honour List » 2016[7] de l' IBBY pour Le lion et l’oiseau
+(international) « Honour List » 2016 de l' IBBY pour Le lion et l’oiseau
 Prix TD de littérature pour l'enfance et la jeunesse 2018 pour Le Chemin de la montagne
-Prix Harry Black de l'album jeunesse[8] 2018 pour Le chemin de la montagne
-Prix du Gouverneur général : littérature jeunesse de langue française - illustration 2018 pour Le Chemin de la montagne[5]
-Prix du livre jeunesse des Bibliothèques de Montréal 2018 pour Le Chemin de la montagne[9]
- Premio nazionale Nati per Leggere 2019 du Salon international du livre (Turin) pour Le Chemin de la montagne[10]</t>
+Prix Harry Black de l'album jeunesse 2018 pour Le chemin de la montagne
+Prix du Gouverneur général : littérature jeunesse de langue française - illustration 2018 pour Le Chemin de la montagne
+Prix du livre jeunesse des Bibliothèques de Montréal 2018 pour Le Chemin de la montagne
+ Premio nazionale Nati per Leggere 2019 du Salon international du livre (Turin) pour Le Chemin de la montagne</t>
         </is>
       </c>
     </row>
